--- a/Inversiones de Tiempo/Inversión Tiempo - Gustavo De León.xlsx
+++ b/Inversiones de Tiempo/Inversión Tiempo - Gustavo De León.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF5EF9C6-E807-4FC5-B76C-05788C07D61D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F548C83A-1A51-4F32-B35D-44D0633D4D9C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="690" yWindow="1440" windowWidth="14400" windowHeight="7800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
   <si>
     <t>No.</t>
   </si>
@@ -68,6 +68,27 @@
   </si>
   <si>
     <t>No ha votado nunca, cree que sería mucho mejor hablando en tiempo el voto electrónico.</t>
+  </si>
+  <si>
+    <t>Lluvia de ideas</t>
+  </si>
+  <si>
+    <t>Preguntas</t>
+  </si>
+  <si>
+    <t>Codings</t>
+  </si>
+  <si>
+    <t>Mapa de Empatía</t>
+  </si>
+  <si>
+    <t>Diagrama de caso de uso</t>
+  </si>
+  <si>
+    <t>Descripción de caso</t>
+  </si>
+  <si>
+    <t>Diagrama de actividad</t>
   </si>
 </sst>
 </file>
@@ -103,7 +124,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -117,6 +138,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -397,15 +420,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:I7"/>
+  <dimension ref="A2:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7:L8"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
@@ -587,6 +610,188 @@
         <v>15</v>
       </c>
     </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="5">
+        <v>43503</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.2638888888888889</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0.28125</v>
+      </c>
+      <c r="F8" s="1">
+        <v>10</v>
+      </c>
+      <c r="G8" s="1">
+        <v>15</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="5">
+        <v>43503</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0.28125</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0.28819444444444448</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>10</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="5">
+        <v>43506</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F10" s="1">
+        <v>30</v>
+      </c>
+      <c r="G10" s="1">
+        <v>90</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="5">
+        <v>43508</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0.18055555555555555</v>
+      </c>
+      <c r="F11" s="1">
+        <v>15</v>
+      </c>
+      <c r="G11" s="1">
+        <v>5</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="5">
+        <v>43510</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0.21527777777777779</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="F12" s="1">
+        <v>5</v>
+      </c>
+      <c r="G12" s="1">
+        <v>15</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="5">
+        <v>43510</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0.23958333333333334</v>
+      </c>
+      <c r="F13" s="1">
+        <v>5</v>
+      </c>
+      <c r="G13" s="1">
+        <v>10</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="5">
+        <v>43510</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0.23958333333333334</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0.28125</v>
+      </c>
+      <c r="F14" s="1">
+        <v>10</v>
+      </c>
+      <c r="G14" s="1">
+        <v>50</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Inversiones de Tiempo/Inversión Tiempo - Gustavo De León.xlsx
+++ b/Inversiones de Tiempo/Inversión Tiempo - Gustavo De León.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F548C83A-1A51-4F32-B35D-44D0633D4D9C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E533209-48CE-4852-B3B8-BE58A69D2048}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="690" yWindow="1440" windowWidth="14400" windowHeight="7800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
   <si>
     <t>No.</t>
   </si>
@@ -89,6 +89,27 @@
   </si>
   <si>
     <t>Diagrama de actividad</t>
+  </si>
+  <si>
+    <t>Lluvia de ideas 2</t>
+  </si>
+  <si>
+    <t>Avances 2</t>
+  </si>
+  <si>
+    <t>Votacion de ideas</t>
+  </si>
+  <si>
+    <t>Requisitos funcionales</t>
+  </si>
+  <si>
+    <t>Prototipo</t>
+  </si>
+  <si>
+    <t>Modelación del sistema</t>
+  </si>
+  <si>
+    <t>Corte 2</t>
   </si>
 </sst>
 </file>
@@ -420,16 +441,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:I14"/>
+  <dimension ref="A2:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="22.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
     <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
@@ -792,6 +813,136 @@
         <v>10</v>
       </c>
     </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="5">
+        <v>43528</v>
+      </c>
+      <c r="D15" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="E15" s="6">
+        <v>0.28541666666666665</v>
+      </c>
+      <c r="F15" s="1">
+        <v>15</v>
+      </c>
+      <c r="G15" s="1">
+        <v>36</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="5">
+        <v>43529</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0.25694444444444448</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0.26041666666666669</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>5</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="5">
+        <v>43529</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0.26041666666666669</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0.2638888888888889</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>5</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="5">
+        <v>43530</v>
+      </c>
+      <c r="D18" s="6">
+        <v>0.2638888888888889</v>
+      </c>
+      <c r="E18" s="6">
+        <v>0.2902777777777778</v>
+      </c>
+      <c r="F18" s="1">
+        <v>8</v>
+      </c>
+      <c r="G18" s="1">
+        <v>30</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="5">
+        <v>43538</v>
+      </c>
+      <c r="D19" s="6">
+        <v>0.34375</v>
+      </c>
+      <c r="E19" s="6">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="F19" s="1">
+        <v>60</v>
+      </c>
+      <c r="G19" s="1">
+        <v>85</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Inversiones de Tiempo/Inversión Tiempo - Gustavo De León.xlsx
+++ b/Inversiones de Tiempo/Inversión Tiempo - Gustavo De León.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E533209-48CE-4852-B3B8-BE58A69D2048}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A6EB508-116B-4123-B3D6-3DE00064159E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4485" yWindow="5235" windowWidth="14400" windowHeight="7800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="37">
   <si>
     <t>No.</t>
   </si>
@@ -110,6 +110,27 @@
   </si>
   <si>
     <t>Corte 2</t>
+  </si>
+  <si>
+    <t>Creación de pantallas secretaria</t>
+  </si>
+  <si>
+    <t>Creación de pantallas jefe de mesa</t>
+  </si>
+  <si>
+    <t>Creación de pantallas votante</t>
+  </si>
+  <si>
+    <t>corte 3</t>
+  </si>
+  <si>
+    <t>Entrevistas con usuarios de prototipos</t>
+  </si>
+  <si>
+    <t>Opiniones sobre prototipos</t>
+  </si>
+  <si>
+    <t>Lista de cambios</t>
   </si>
 </sst>
 </file>
@@ -441,15 +462,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:I19"/>
+  <dimension ref="A2:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" customWidth="1"/>
     <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
@@ -865,7 +886,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -891,7 +912,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -917,7 +938,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -941,6 +962,139 @@
       </c>
       <c r="H19" s="1" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="5">
+        <v>43549</v>
+      </c>
+      <c r="D20" s="6">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="E20" s="6">
+        <v>0.3125</v>
+      </c>
+      <c r="F20" s="1">
+        <v>5</v>
+      </c>
+      <c r="G20" s="1">
+        <v>25</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="5">
+        <v>43549</v>
+      </c>
+      <c r="D21" s="6">
+        <v>0.3125</v>
+      </c>
+      <c r="E21" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F21" s="1">
+        <v>10</v>
+      </c>
+      <c r="G21" s="1">
+        <v>20</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="5">
+        <v>43549</v>
+      </c>
+      <c r="D22" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E22" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="F22" s="1">
+        <v>120</v>
+      </c>
+      <c r="G22" s="1">
+        <v>120</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="5">
+        <v>43550</v>
+      </c>
+      <c r="D23" s="6">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E23" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="F23" s="1">
+        <v>40</v>
+      </c>
+      <c r="G23" s="1">
+        <v>80</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="5">
+        <v>43551</v>
+      </c>
+      <c r="D24" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="E24" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F24" s="1">
+        <v>20</v>
+      </c>
+      <c r="G24" s="1">
+        <v>40</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
